--- a/docss/trend/sweden/E_neuron.xlsx
+++ b/docss/trend/sweden/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\sweden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\sweden\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,202 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.8645674074068666</v>
+        <v>1.865</v>
       </c>
       <c r="C2" s="6">
-        <v>2.2821838092058897</v>
+        <v>2.282</v>
       </c>
       <c r="D2" s="6">
-        <v>1.5072134509682655</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>1.5069999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>1.9127020733430982</v>
+        <v>1.913</v>
       </c>
       <c r="C3" s="6">
-        <v>2.33112439699471</v>
+        <v>2.331</v>
       </c>
       <c r="D3" s="6">
-        <v>1.5640369672328234</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>1.5640000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>1.9712685169652104</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="C4" s="6">
-        <v>2.3053001742810011</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="D4" s="6">
-        <v>1.6632623989135027</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>1.663</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>2.167608599178493</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.7457257490605116</v>
+        <v>2.746</v>
       </c>
       <c r="D5" s="6">
-        <v>1.6584815103560686</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>1.6579999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>2.162319315597415</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>2.5814733877778053</v>
+        <v>2.581</v>
       </c>
       <c r="D6" s="6">
-        <v>1.7717048414051533</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>1.772</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>2.0114877289161086</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="C7" s="6">
-        <v>2.3657744899392128</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>1.7249667178839445</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>1.7250000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>2.0630458481609821</v>
+        <v>2.0630000000000002</v>
       </c>
       <c r="C8" s="6">
-        <v>2.4552498385310173</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>1.7346887141466141</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>1.7350000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>2.4328019889071584</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="C9" s="6">
-        <v>2.8077772632241249</v>
+        <v>2.8079999999999998</v>
       </c>
       <c r="D9" s="6">
-        <v>2.0709664728492498</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>2.0710000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>2.1785990409553051</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="C10" s="6">
-        <v>2.6068590544164181</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="D10" s="6">
-        <v>1.7956252507865429</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>1.796</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>2.3207146106287837</v>
+        <v>2.3210000000000002</v>
       </c>
       <c r="C11" s="6">
-        <v>2.7524241730570793</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="D11" s="6">
-        <v>1.9443510062992573</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>1.944</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>2.2036391943693161</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="C12" s="6">
-        <v>2.4905928652733564</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>1.9328325651586056</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>1.9330000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>2.4191266763955355</v>
+        <v>2.419</v>
       </c>
       <c r="C13" s="6">
-        <v>2.5538713969290257</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="D13" s="6">
-        <v>2.3164029773324728</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>2.3159999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.9906901633366942</v>
+        <v>1.9910000000000001</v>
       </c>
       <c r="C14" s="6">
-        <v>2.4621491767466068</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="D14" s="6">
-        <v>1.5410622768104076</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>1.5409999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
